--- a/data/eBooks-main/current/devops-aspnet-core/DevOps-for-ASP.NET-Core-Developers.pdf.hwaifs/tables/py/gmft/df.tables-0.xlsx
+++ b/data/eBooks-main/current/devops-aspnet-core/DevOps-for-ASP.NET-Core-Developers.pdf.hwaifs/tables/py/gmft/df.tables-0.xlsx
@@ -844,7 +844,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Deploy to production</t>
+          <t>to</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>.....................................................................................................................................................</t>
+          <t>Deploy production .....................................................................................................................................................</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
